--- a/templates/staff/notif_in_2019.xlsx
+++ b/templates/staff/notif_in_2019.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E55048-7FEE-4CF6-A11E-4077423FA1C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s1" sheetId="1" r:id="rId1"/>
@@ -278,9 +279,6 @@
     <t>г.</t>
   </si>
   <si>
-    <t>05</t>
-  </si>
-  <si>
     <t>Паспортные данные лица, подавшего уведомление по доверенности:</t>
   </si>
   <si>
@@ -353,12 +351,15 @@
   </si>
   <si>
     <t>Генеральный директор Ширяева Наталья Александровна</t>
+  </si>
+  <si>
+    <t>06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -684,6 +685,51 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,127 +760,82 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1116,7 +1117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
@@ -1151,16 +1152,16 @@
       <c r="V1" s="12"/>
       <c r="W1" s="12"/>
       <c r="X1" s="12"/>
-      <c r="AH1" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
+      <c r="AH1" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
     </row>
     <row r="2" spans="1:42" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
@@ -1187,16 +1188,16 @@
       <c r="V2" s="12"/>
       <c r="W2" s="12"/>
       <c r="X2" s="12"/>
-      <c r="AH2" s="50" t="s">
+      <c r="AH2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
     </row>
     <row r="3" spans="1:42" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -1223,16 +1224,16 @@
       <c r="V3" s="12"/>
       <c r="W3" s="12"/>
       <c r="X3" s="12"/>
-      <c r="AH3" s="50" t="s">
+      <c r="AH3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
     </row>
     <row r="4" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
@@ -1259,270 +1260,270 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
-      <c r="AH4" s="51" t="s">
+      <c r="AH4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="51"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
+      <c r="AK4" s="45"/>
+      <c r="AL4" s="45"/>
+      <c r="AM4" s="45"/>
+      <c r="AN4" s="45"/>
+      <c r="AO4" s="45"/>
     </row>
     <row r="5" spans="1:42" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="39"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="54"/>
+      <c r="AN5" s="54"/>
+      <c r="AO5" s="54"/>
+      <c r="AP5" s="54"/>
     </row>
     <row r="6" spans="1:42" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="39"/>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="39"/>
-      <c r="AL6" s="39"/>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="39"/>
-      <c r="AP6" s="39"/>
+      <c r="A6" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="54"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="54"/>
+      <c r="AP6" s="54"/>
     </row>
     <row r="7" spans="1:42" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="39"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="54"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="54"/>
+      <c r="AK7" s="54"/>
+      <c r="AL7" s="54"/>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="54"/>
+      <c r="AO7" s="54"/>
+      <c r="AP7" s="54"/>
     </row>
     <row r="8" spans="1:42" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="39"/>
-      <c r="AJ8" s="39"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="39"/>
-      <c r="AM8" s="39"/>
-      <c r="AN8" s="39"/>
-      <c r="AO8" s="39"/>
-      <c r="AP8" s="39"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="54"/>
+      <c r="AM8" s="54"/>
+      <c r="AN8" s="54"/>
+      <c r="AO8" s="54"/>
+      <c r="AP8" s="54"/>
     </row>
     <row r="9" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="60"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
     </row>
     <row r="10" spans="1:42" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="59"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="52"/>
     </row>
     <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1711,77 +1712,77 @@
       <c r="AP15" s="1"/>
     </row>
     <row r="16" spans="1:42" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-      <c r="AD16" s="53"/>
-      <c r="AE16" s="53"/>
-      <c r="AF16" s="53"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
     </row>
     <row r="17" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:42" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="54" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="55"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="48"/>
       <c r="X18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Y18" s="56" t="s">
+      <c r="Y18" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="Z18" s="57"/>
+      <c r="Z18" s="50"/>
       <c r="AA18" s="9" t="s">
         <v>34</v>
       </c>
@@ -1797,52 +1798,52 @@
       <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
+      <c r="C20" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
       <c r="O20" s="3"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R20" s="43" t="s">
+      <c r="R20" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="43"/>
-      <c r="AC20" s="43"/>
-      <c r="AD20" s="43"/>
-      <c r="AE20" s="43"/>
-      <c r="AF20" s="43"/>
-      <c r="AG20" s="43"/>
-      <c r="AH20" s="43"/>
-      <c r="AI20" s="43"/>
-      <c r="AJ20" s="43"/>
-      <c r="AK20" s="43"/>
-      <c r="AL20" s="43"/>
-      <c r="AM20" s="43"/>
-      <c r="AN20" s="43"/>
-      <c r="AO20" s="43"/>
-      <c r="AP20" s="43"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="58"/>
+      <c r="AI20" s="58"/>
+      <c r="AJ20" s="58"/>
+      <c r="AK20" s="58"/>
+      <c r="AL20" s="58"/>
+      <c r="AM20" s="58"/>
+      <c r="AN20" s="58"/>
+      <c r="AO20" s="58"/>
+      <c r="AP20" s="58"/>
     </row>
     <row r="21" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
@@ -1861,83 +1862,83 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="43"/>
-      <c r="AC21" s="43"/>
-      <c r="AD21" s="43"/>
-      <c r="AE21" s="43"/>
-      <c r="AF21" s="43"/>
-      <c r="AG21" s="43"/>
-      <c r="AH21" s="43"/>
-      <c r="AI21" s="43"/>
-      <c r="AJ21" s="43"/>
-      <c r="AK21" s="43"/>
-      <c r="AL21" s="43"/>
-      <c r="AM21" s="43"/>
-      <c r="AN21" s="43"/>
-      <c r="AO21" s="43"/>
-      <c r="AP21" s="43"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="58"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="58"/>
+      <c r="AI21" s="58"/>
+      <c r="AJ21" s="58"/>
+      <c r="AK21" s="58"/>
+      <c r="AL21" s="58"/>
+      <c r="AM21" s="58"/>
+      <c r="AN21" s="58"/>
+      <c r="AO21" s="58"/>
+      <c r="AP21" s="58"/>
     </row>
     <row r="22" spans="1:42" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
       <c r="O22" s="3"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R22" s="44" t="s">
+      <c r="R22" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="44"/>
-      <c r="AH22" s="44"/>
-      <c r="AI22" s="44"/>
-      <c r="AJ22" s="44"/>
-      <c r="AK22" s="44"/>
-      <c r="AL22" s="44"/>
-      <c r="AM22" s="44"/>
-      <c r="AN22" s="44"/>
-      <c r="AO22" s="44"/>
-      <c r="AP22" s="44"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="59"/>
+      <c r="AI22" s="59"/>
+      <c r="AJ22" s="59"/>
+      <c r="AK22" s="59"/>
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="59"/>
+      <c r="AN22" s="59"/>
+      <c r="AO22" s="59"/>
+      <c r="AP22" s="59"/>
     </row>
     <row r="23" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
@@ -1987,52 +1988,52 @@
       <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
       <c r="O24" s="3"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R24" s="44" t="s">
+      <c r="R24" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="44"/>
-      <c r="AG24" s="44"/>
-      <c r="AH24" s="44"/>
-      <c r="AI24" s="44"/>
-      <c r="AJ24" s="44"/>
-      <c r="AK24" s="44"/>
-      <c r="AL24" s="44"/>
-      <c r="AM24" s="44"/>
-      <c r="AN24" s="44"/>
-      <c r="AO24" s="44"/>
-      <c r="AP24" s="44"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="59"/>
+      <c r="AH24" s="59"/>
+      <c r="AI24" s="59"/>
+      <c r="AJ24" s="59"/>
+      <c r="AK24" s="59"/>
+      <c r="AL24" s="59"/>
+      <c r="AM24" s="59"/>
+      <c r="AN24" s="59"/>
+      <c r="AO24" s="59"/>
+      <c r="AP24" s="59"/>
     </row>
     <row r="25" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
@@ -2082,83 +2083,83 @@
       <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
       <c r="O26" s="5"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R26" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="44"/>
-      <c r="AI26" s="44"/>
-      <c r="AJ26" s="44"/>
-      <c r="AK26" s="44"/>
-      <c r="AL26" s="44"/>
-      <c r="AM26" s="44"/>
-      <c r="AN26" s="44"/>
-      <c r="AO26" s="44"/>
-      <c r="AP26" s="44"/>
+      <c r="R26" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="59"/>
+      <c r="AI26" s="59"/>
+      <c r="AJ26" s="59"/>
+      <c r="AK26" s="59"/>
+      <c r="AL26" s="59"/>
+      <c r="AM26" s="59"/>
+      <c r="AN26" s="59"/>
+      <c r="AO26" s="59"/>
+      <c r="AP26" s="59"/>
     </row>
     <row r="27" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="60"/>
+      <c r="Y28" s="60"/>
+      <c r="Z28" s="60"/>
       <c r="AA28" s="2">
         <v>1</v>
       </c>
@@ -2191,32 +2192,32 @@
       <c r="AP28" s="2"/>
     </row>
     <row r="29" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -2546,50 +2547,50 @@
     </row>
     <row r="35" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:42" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="46"/>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="46"/>
-      <c r="AB36" s="46"/>
-      <c r="AC36" s="46"/>
-      <c r="AD36" s="46"/>
-      <c r="AE36" s="46"/>
-      <c r="AF36" s="46"/>
-      <c r="AG36" s="46"/>
-      <c r="AH36" s="46"/>
-      <c r="AI36" s="46"/>
-      <c r="AJ36" s="46"/>
-      <c r="AK36" s="46"/>
-      <c r="AL36" s="46"/>
-      <c r="AM36" s="46"/>
-      <c r="AN36" s="46"/>
-      <c r="AO36" s="46"/>
-      <c r="AP36" s="46"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="61"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="61"/>
+      <c r="AC36" s="61"/>
+      <c r="AD36" s="61"/>
+      <c r="AE36" s="61"/>
+      <c r="AF36" s="61"/>
+      <c r="AG36" s="61"/>
+      <c r="AH36" s="61"/>
+      <c r="AI36" s="61"/>
+      <c r="AJ36" s="61"/>
+      <c r="AK36" s="61"/>
+      <c r="AL36" s="61"/>
+      <c r="AM36" s="61"/>
+      <c r="AN36" s="61"/>
+      <c r="AO36" s="61"/>
+      <c r="AP36" s="61"/>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
@@ -2708,50 +2709,50 @@
     </row>
     <row r="40" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:42" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
-      <c r="W41" s="47"/>
-      <c r="X41" s="47"/>
-      <c r="Y41" s="47"/>
-      <c r="Z41" s="47"/>
-      <c r="AA41" s="47"/>
-      <c r="AB41" s="47"/>
-      <c r="AC41" s="47"/>
-      <c r="AD41" s="47"/>
-      <c r="AE41" s="47"/>
-      <c r="AF41" s="47"/>
-      <c r="AG41" s="47"/>
-      <c r="AH41" s="47"/>
-      <c r="AI41" s="47"/>
-      <c r="AJ41" s="47"/>
-      <c r="AK41" s="47"/>
-      <c r="AL41" s="47"/>
-      <c r="AM41" s="47"/>
-      <c r="AN41" s="47"/>
-      <c r="AO41" s="47"/>
-      <c r="AP41" s="47"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="62"/>
+      <c r="T41" s="62"/>
+      <c r="U41" s="62"/>
+      <c r="V41" s="62"/>
+      <c r="W41" s="62"/>
+      <c r="X41" s="62"/>
+      <c r="Y41" s="62"/>
+      <c r="Z41" s="62"/>
+      <c r="AA41" s="62"/>
+      <c r="AB41" s="62"/>
+      <c r="AC41" s="62"/>
+      <c r="AD41" s="62"/>
+      <c r="AE41" s="62"/>
+      <c r="AF41" s="62"/>
+      <c r="AG41" s="62"/>
+      <c r="AH41" s="62"/>
+      <c r="AI41" s="62"/>
+      <c r="AJ41" s="62"/>
+      <c r="AK41" s="62"/>
+      <c r="AL41" s="62"/>
+      <c r="AM41" s="62"/>
+      <c r="AN41" s="62"/>
+      <c r="AO41" s="62"/>
+      <c r="AP41" s="62"/>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -2824,50 +2825,50 @@
       <c r="AP42" s="2"/>
     </row>
     <row r="43" spans="1:42" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="48"/>
-      <c r="T43" s="48"/>
-      <c r="U43" s="48"/>
-      <c r="V43" s="48"/>
-      <c r="W43" s="48"/>
-      <c r="X43" s="48"/>
-      <c r="Y43" s="48"/>
-      <c r="Z43" s="48"/>
-      <c r="AA43" s="48"/>
-      <c r="AB43" s="48"/>
-      <c r="AC43" s="48"/>
-      <c r="AD43" s="48"/>
-      <c r="AE43" s="48"/>
-      <c r="AF43" s="48"/>
-      <c r="AG43" s="48"/>
-      <c r="AH43" s="48"/>
-      <c r="AI43" s="48"/>
-      <c r="AJ43" s="48"/>
-      <c r="AK43" s="48"/>
-      <c r="AL43" s="48"/>
-      <c r="AM43" s="48"/>
-      <c r="AN43" s="48"/>
-      <c r="AO43" s="48"/>
-      <c r="AP43" s="48"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="63"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="63"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="63"/>
+      <c r="X43" s="63"/>
+      <c r="Y43" s="63"/>
+      <c r="Z43" s="63"/>
+      <c r="AA43" s="63"/>
+      <c r="AB43" s="63"/>
+      <c r="AC43" s="63"/>
+      <c r="AD43" s="63"/>
+      <c r="AE43" s="63"/>
+      <c r="AF43" s="63"/>
+      <c r="AG43" s="63"/>
+      <c r="AH43" s="63"/>
+      <c r="AI43" s="63"/>
+      <c r="AJ43" s="63"/>
+      <c r="AK43" s="63"/>
+      <c r="AL43" s="63"/>
+      <c r="AM43" s="63"/>
+      <c r="AN43" s="63"/>
+      <c r="AO43" s="63"/>
+      <c r="AP43" s="63"/>
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -2940,50 +2941,50 @@
       <c r="AP44" s="2"/>
     </row>
     <row r="45" spans="1:42" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="49"/>
-      <c r="Q45" s="49"/>
-      <c r="R45" s="49"/>
-      <c r="S45" s="49"/>
-      <c r="T45" s="49"/>
-      <c r="U45" s="49"/>
-      <c r="V45" s="49"/>
-      <c r="W45" s="49"/>
-      <c r="X45" s="49"/>
-      <c r="Y45" s="49"/>
-      <c r="Z45" s="49"/>
-      <c r="AA45" s="49"/>
-      <c r="AB45" s="49"/>
-      <c r="AC45" s="49"/>
-      <c r="AD45" s="49"/>
-      <c r="AE45" s="49"/>
-      <c r="AF45" s="49"/>
-      <c r="AG45" s="49"/>
-      <c r="AH45" s="49"/>
-      <c r="AI45" s="49"/>
-      <c r="AJ45" s="49"/>
-      <c r="AK45" s="49"/>
-      <c r="AL45" s="49"/>
-      <c r="AM45" s="49"/>
-      <c r="AN45" s="49"/>
-      <c r="AO45" s="49"/>
-      <c r="AP45" s="49"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42"/>
+      <c r="Y45" s="42"/>
+      <c r="Z45" s="42"/>
+      <c r="AA45" s="42"/>
+      <c r="AB45" s="42"/>
+      <c r="AC45" s="42"/>
+      <c r="AD45" s="42"/>
+      <c r="AE45" s="42"/>
+      <c r="AF45" s="42"/>
+      <c r="AG45" s="42"/>
+      <c r="AH45" s="42"/>
+      <c r="AI45" s="42"/>
+      <c r="AJ45" s="42"/>
+      <c r="AK45" s="42"/>
+      <c r="AL45" s="42"/>
+      <c r="AM45" s="42"/>
+      <c r="AN45" s="42"/>
+      <c r="AO45" s="42"/>
+      <c r="AP45" s="42"/>
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
@@ -3294,40 +3295,40 @@
       <c r="AP50" s="2"/>
     </row>
     <row r="51" spans="1:42" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="53"/>
-      <c r="S51" s="53"/>
-      <c r="T51" s="53"/>
-      <c r="U51" s="53"/>
-      <c r="V51" s="53"/>
-      <c r="W51" s="53"/>
-      <c r="X51" s="53"/>
-      <c r="Y51" s="53"/>
-      <c r="Z51" s="53"/>
-      <c r="AA51" s="53"/>
-      <c r="AB51" s="53"/>
-      <c r="AC51" s="53"/>
-      <c r="AD51" s="53"/>
-      <c r="AE51" s="53"/>
-      <c r="AF51" s="53"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="46"/>
+      <c r="S51" s="46"/>
+      <c r="T51" s="46"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="46"/>
+      <c r="Y51" s="46"/>
+      <c r="Z51" s="46"/>
+      <c r="AA51" s="46"/>
+      <c r="AB51" s="46"/>
+      <c r="AC51" s="46"/>
+      <c r="AD51" s="46"/>
+      <c r="AE51" s="46"/>
+      <c r="AF51" s="46"/>
     </row>
     <row r="52" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
@@ -3364,16 +3365,16 @@
       <c r="AF52" s="10"/>
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A53" s="52" t="s">
+      <c r="A53" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
       <c r="I53" s="2">
         <v>8</v>
       </c>
@@ -3433,63 +3434,63 @@
     </row>
     <row r="54" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="61" t="s">
+      <c r="A55" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="61"/>
-      <c r="L55" s="61"/>
-      <c r="M55" s="61"/>
-      <c r="N55" s="61"/>
-      <c r="O55" s="61"/>
-      <c r="P55" s="61"/>
-      <c r="Q55" s="61"/>
-      <c r="R55" s="61"/>
-      <c r="S55" s="61"/>
-      <c r="T55" s="61"/>
-      <c r="U55" s="61"/>
-      <c r="V55" s="61"/>
-      <c r="W55" s="61"/>
-      <c r="X55" s="61"/>
-      <c r="Y55" s="61"/>
-      <c r="Z55" s="61"/>
-      <c r="AA55" s="61"/>
-      <c r="AB55" s="61"/>
-      <c r="AC55" s="61"/>
-      <c r="AD55" s="61"/>
-      <c r="AE55" s="61"/>
-      <c r="AF55" s="61"/>
-      <c r="AG55" s="61"/>
-      <c r="AH55" s="61"/>
-      <c r="AI55" s="61"/>
-      <c r="AJ55" s="61"/>
-      <c r="AK55" s="61"/>
-      <c r="AL55" s="61"/>
-      <c r="AM55" s="61"/>
-      <c r="AN55" s="61"/>
-      <c r="AO55" s="61"/>
-      <c r="AP55" s="61"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="40"/>
+      <c r="Z55" s="40"/>
+      <c r="AA55" s="40"/>
+      <c r="AB55" s="40"/>
+      <c r="AC55" s="40"/>
+      <c r="AD55" s="40"/>
+      <c r="AE55" s="40"/>
+      <c r="AF55" s="40"/>
+      <c r="AG55" s="40"/>
+      <c r="AH55" s="40"/>
+      <c r="AI55" s="40"/>
+      <c r="AJ55" s="40"/>
+      <c r="AK55" s="40"/>
+      <c r="AL55" s="40"/>
+      <c r="AM55" s="40"/>
+      <c r="AN55" s="40"/>
+      <c r="AO55" s="40"/>
+      <c r="AP55" s="40"/>
     </row>
     <row r="56" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -3570,16 +3571,16 @@
       <c r="AP58" s="4"/>
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A59" s="52" t="s">
+      <c r="A59" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="52"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="52"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -3660,16 +3661,16 @@
       <c r="AP60" s="4"/>
     </row>
     <row r="61" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="61" t="s">
+      <c r="A61" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="61"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -3750,16 +3751,16 @@
       <c r="AP62" s="4"/>
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -3812,22 +3813,22 @@
       <c r="N64" s="33"/>
     </row>
     <row r="65" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="62" t="s">
+      <c r="A65" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B65" s="62"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="62"/>
-      <c r="K65" s="62"/>
-      <c r="L65" s="62"/>
-      <c r="M65" s="62"/>
-      <c r="N65" s="62"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="41"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
@@ -4021,16 +4022,16 @@
     </row>
     <row r="70" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A71" s="52" t="s">
+      <c r="A71" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="4"/>
@@ -4050,40 +4051,40 @@
       <c r="Y71" s="3"/>
     </row>
     <row r="72" spans="1:42" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="61" t="s">
+      <c r="A72" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B72" s="61"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="63" t="s">
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="J72" s="63"/>
-      <c r="M72" s="49" t="s">
+      <c r="J72" s="43"/>
+      <c r="M72" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="N72" s="49"/>
-      <c r="Q72" s="49" t="s">
+      <c r="N72" s="42"/>
+      <c r="Q72" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="R72" s="49"/>
-      <c r="S72" s="49"/>
-      <c r="T72" s="49"/>
+      <c r="R72" s="42"/>
+      <c r="S72" s="42"/>
+      <c r="T72" s="42"/>
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="61"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
       <c r="I73" s="2" t="s">
         <v>11</v>
       </c>
@@ -4137,54 +4138,54 @@
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
-      <c r="I74" s="40" t="s">
+      <c r="I74" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="40"/>
-      <c r="N74" s="40"/>
-      <c r="O74" s="40"/>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="40"/>
-      <c r="R74" s="40"/>
-      <c r="S74" s="40"/>
-      <c r="T74" s="40"/>
-      <c r="U74" s="40"/>
-      <c r="V74" s="40"/>
-      <c r="W74" s="40"/>
-      <c r="X74" s="40"/>
-      <c r="Y74" s="40"/>
-      <c r="Z74" s="40"/>
-      <c r="AA74" s="40"/>
-      <c r="AB74" s="40"/>
-      <c r="AC74" s="40"/>
-      <c r="AD74" s="40"/>
-      <c r="AE74" s="40"/>
-      <c r="AF74" s="40"/>
-      <c r="AG74" s="40"/>
-      <c r="AH74" s="40"/>
-      <c r="AI74" s="40"/>
-      <c r="AJ74" s="40"/>
-      <c r="AK74" s="40"/>
-      <c r="AL74" s="40"/>
-      <c r="AM74" s="40"/>
-      <c r="AN74" s="40"/>
-      <c r="AO74" s="40"/>
-      <c r="AP74" s="40"/>
+      <c r="J74" s="55"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="55"/>
+      <c r="M74" s="55"/>
+      <c r="N74" s="55"/>
+      <c r="O74" s="55"/>
+      <c r="P74" s="55"/>
+      <c r="Q74" s="55"/>
+      <c r="R74" s="55"/>
+      <c r="S74" s="55"/>
+      <c r="T74" s="55"/>
+      <c r="U74" s="55"/>
+      <c r="V74" s="55"/>
+      <c r="W74" s="55"/>
+      <c r="X74" s="55"/>
+      <c r="Y74" s="55"/>
+      <c r="Z74" s="55"/>
+      <c r="AA74" s="55"/>
+      <c r="AB74" s="55"/>
+      <c r="AC74" s="55"/>
+      <c r="AD74" s="55"/>
+      <c r="AE74" s="55"/>
+      <c r="AF74" s="55"/>
+      <c r="AG74" s="55"/>
+      <c r="AH74" s="55"/>
+      <c r="AI74" s="55"/>
+      <c r="AJ74" s="55"/>
+      <c r="AK74" s="55"/>
+      <c r="AL74" s="55"/>
+      <c r="AM74" s="55"/>
+      <c r="AN74" s="55"/>
+      <c r="AO74" s="55"/>
+      <c r="AP74" s="55"/>
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A75" s="41" t="s">
+      <c r="A75" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14"/>
       <c r="K75" s="14"/>
@@ -4219,16 +4220,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A55:AP55"/>
-    <mergeCell ref="A65:N65"/>
-    <mergeCell ref="A71:H71"/>
-    <mergeCell ref="A72:H73"/>
-    <mergeCell ref="Q72:T72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A8:AP8"/>
+    <mergeCell ref="I74:AP74"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="C20:N20"/>
+    <mergeCell ref="R20:AP21"/>
+    <mergeCell ref="C22:N22"/>
+    <mergeCell ref="R22:AP22"/>
+    <mergeCell ref="C24:N24"/>
+    <mergeCell ref="R24:AP24"/>
+    <mergeCell ref="C26:N26"/>
+    <mergeCell ref="R26:AP26"/>
+    <mergeCell ref="A28:Z29"/>
+    <mergeCell ref="A36:AP36"/>
+    <mergeCell ref="A41:AP41"/>
+    <mergeCell ref="A43:AP43"/>
+    <mergeCell ref="A45:AP45"/>
     <mergeCell ref="AH1:AO1"/>
     <mergeCell ref="AH2:AO2"/>
     <mergeCell ref="AH3:AO3"/>
@@ -4245,22 +4252,16 @@
     <mergeCell ref="A5:AP5"/>
     <mergeCell ref="A6:AP6"/>
     <mergeCell ref="A7:AP7"/>
-    <mergeCell ref="A8:AP8"/>
-    <mergeCell ref="I74:AP74"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="C20:N20"/>
-    <mergeCell ref="R20:AP21"/>
-    <mergeCell ref="C22:N22"/>
-    <mergeCell ref="R22:AP22"/>
-    <mergeCell ref="C24:N24"/>
-    <mergeCell ref="R24:AP24"/>
-    <mergeCell ref="C26:N26"/>
-    <mergeCell ref="R26:AP26"/>
-    <mergeCell ref="A28:Z29"/>
-    <mergeCell ref="A36:AP36"/>
-    <mergeCell ref="A41:AP41"/>
-    <mergeCell ref="A43:AP43"/>
-    <mergeCell ref="A45:AP45"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A55:AP55"/>
+    <mergeCell ref="A65:N65"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="A72:H73"/>
+    <mergeCell ref="Q72:T72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A63:H63"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.35433070866141736" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4268,7 +4269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP77"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -4281,13 +4282,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="65"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="4"/>
@@ -4322,24 +4323,24 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="66"/>
+      <c r="G2" s="85"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="40"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
@@ -4357,13 +4358,13 @@
       <c r="AF2" s="4"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="65"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="88"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -4515,22 +4516,22 @@
       <c r="AF6" s="4"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="65"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="88"/>
       <c r="O7" s="34"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -4540,13 +4541,13 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-      <c r="Z7" s="52" t="s">
+      <c r="Z7" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="65"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="88"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="4"/>
@@ -4561,64 +4562,64 @@
       <c r="AP7" s="2"/>
     </row>
     <row r="8" spans="1:42" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE8" s="66" t="s">
+      <c r="AE8" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="AF8" s="66"/>
+      <c r="AF8" s="85"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
-      <c r="AI8" s="40" t="s">
+      <c r="AI8" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AJ8" s="40"/>
+      <c r="AJ8" s="55"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
-      <c r="AM8" s="40" t="s">
+      <c r="AM8" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="AN8" s="40"/>
-      <c r="AO8" s="40"/>
-      <c r="AP8" s="40"/>
+      <c r="AN8" s="55"/>
+      <c r="AO8" s="55"/>
+      <c r="AP8" s="55"/>
     </row>
     <row r="9" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
       <c r="R10" s="35"/>
       <c r="S10" s="36"/>
       <c r="T10" s="2"/>
@@ -4789,73 +4790,73 @@
       <c r="AP14" s="2"/>
     </row>
     <row r="15" spans="1:42" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="40"/>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="40"/>
-      <c r="AK15" s="40"/>
-      <c r="AL15" s="40"/>
-      <c r="AM15" s="40"/>
-      <c r="AN15" s="40"/>
-      <c r="AO15" s="40"/>
-      <c r="AP15" s="40"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="55"/>
+      <c r="AH15" s="55"/>
+      <c r="AI15" s="55"/>
+      <c r="AJ15" s="55"/>
+      <c r="AK15" s="55"/>
+      <c r="AL15" s="55"/>
+      <c r="AM15" s="55"/>
+      <c r="AN15" s="55"/>
+      <c r="AO15" s="55"/>
+      <c r="AP15" s="55"/>
     </row>
     <row r="16" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
+      <c r="A16" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="4"/>
@@ -4870,104 +4871,104 @@
       <c r="AE16" s="2"/>
     </row>
     <row r="17" spans="1:42" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="66" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="U17" s="66"/>
+      <c r="U17" s="85"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
-      <c r="X17" s="40" t="s">
+      <c r="X17" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="Y17" s="40"/>
+      <c r="Y17" s="55"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
-      <c r="AB17" s="40" t="s">
+      <c r="AB17" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="55"/>
+      <c r="AE17" s="55"/>
     </row>
     <row r="18" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:42" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="43"/>
-      <c r="AC19" s="43"/>
-      <c r="AD19" s="43"/>
-      <c r="AE19" s="43"/>
-      <c r="AF19" s="43"/>
-      <c r="AG19" s="43"/>
-      <c r="AH19" s="43"/>
-      <c r="AI19" s="43"/>
-      <c r="AJ19" s="43"/>
-      <c r="AK19" s="43"/>
-      <c r="AL19" s="43"/>
-      <c r="AM19" s="43"/>
-      <c r="AN19" s="43"/>
-      <c r="AO19" s="43"/>
-      <c r="AP19" s="43"/>
+      <c r="A19" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="58"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="58"/>
+      <c r="AI19" s="58"/>
+      <c r="AJ19" s="58"/>
+      <c r="AK19" s="58"/>
+      <c r="AL19" s="58"/>
+      <c r="AM19" s="58"/>
+      <c r="AN19" s="58"/>
+      <c r="AO19" s="58"/>
+      <c r="AP19" s="58"/>
     </row>
     <row r="20" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
+      <c r="A21" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -5004,11 +5005,11 @@
     </row>
     <row r="22" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -5053,13 +5054,13 @@
     </row>
     <row r="24" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="65"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="88"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="4"/>
@@ -5079,32 +5080,32 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="66" t="s">
+      <c r="F26" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="66"/>
+      <c r="G26" s="85"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="40" t="s">
+      <c r="J26" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="K26" s="40"/>
+      <c r="K26" s="55"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="40" t="s">
+      <c r="N26" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -5191,13 +5192,13 @@
     </row>
     <row r="30" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="65"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="88"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="4"/>
@@ -5210,11 +5211,11 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="68" t="s">
+      <c r="R31" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="S31" s="69"/>
-      <c r="T31" s="70"/>
+      <c r="S31" s="83"/>
+      <c r="T31" s="84"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="4"/>
@@ -5234,88 +5235,88 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="66" t="s">
+      <c r="F32" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="G32" s="66"/>
+      <c r="G32" s="85"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="40" t="s">
+      <c r="J32" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="K32" s="40"/>
+      <c r="K32" s="55"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="40" t="s">
+      <c r="N32" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="U32" s="66" t="s">
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="U32" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="V32" s="66"/>
+      <c r="V32" s="85"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
-      <c r="Y32" s="40" t="s">
+      <c r="Y32" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="Z32" s="40"/>
+      <c r="Z32" s="55"/>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
-      <c r="AC32" s="40" t="s">
+      <c r="AC32" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="AD32" s="40"/>
-      <c r="AE32" s="40"/>
-      <c r="AF32" s="40"/>
+      <c r="AD32" s="55"/>
+      <c r="AE32" s="55"/>
+      <c r="AF32" s="55"/>
     </row>
     <row r="33" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="45"/>
-      <c r="AB33" s="45"/>
-      <c r="AC33" s="45"/>
-      <c r="AD33" s="45"/>
-      <c r="AE33" s="45"/>
-      <c r="AF33" s="45"/>
-      <c r="AG33" s="45"/>
-      <c r="AH33" s="45"/>
-      <c r="AI33" s="45"/>
-      <c r="AJ33" s="45"/>
-      <c r="AK33" s="45"/>
-      <c r="AL33" s="45"/>
-      <c r="AM33" s="45"/>
-      <c r="AN33" s="45"/>
-      <c r="AO33" s="45"/>
-      <c r="AP33" s="45"/>
+      <c r="A33" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="60"/>
+      <c r="X33" s="60"/>
+      <c r="Y33" s="60"/>
+      <c r="Z33" s="60"/>
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="60"/>
+      <c r="AC33" s="60"/>
+      <c r="AD33" s="60"/>
+      <c r="AE33" s="60"/>
+      <c r="AF33" s="60"/>
+      <c r="AG33" s="60"/>
+      <c r="AH33" s="60"/>
+      <c r="AI33" s="60"/>
+      <c r="AJ33" s="60"/>
+      <c r="AK33" s="60"/>
+      <c r="AL33" s="60"/>
+      <c r="AM33" s="60"/>
+      <c r="AN33" s="60"/>
+      <c r="AO33" s="60"/>
+      <c r="AP33" s="60"/>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
@@ -5440,50 +5441,50 @@
       <c r="AP36" s="6"/>
     </row>
     <row r="37" spans="1:42" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="49"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="49"/>
-      <c r="Y37" s="49"/>
-      <c r="Z37" s="49"/>
-      <c r="AA37" s="49"/>
-      <c r="AB37" s="49"/>
-      <c r="AC37" s="49"/>
-      <c r="AD37" s="49"/>
-      <c r="AE37" s="49"/>
-      <c r="AF37" s="49"/>
-      <c r="AG37" s="49"/>
-      <c r="AH37" s="49"/>
-      <c r="AI37" s="49"/>
-      <c r="AJ37" s="49"/>
-      <c r="AK37" s="49"/>
-      <c r="AL37" s="49"/>
-      <c r="AM37" s="49"/>
-      <c r="AN37" s="49"/>
-      <c r="AO37" s="49"/>
-      <c r="AP37" s="49"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="42"/>
+      <c r="AB37" s="42"/>
+      <c r="AC37" s="42"/>
+      <c r="AD37" s="42"/>
+      <c r="AE37" s="42"/>
+      <c r="AF37" s="42"/>
+      <c r="AG37" s="42"/>
+      <c r="AH37" s="42"/>
+      <c r="AI37" s="42"/>
+      <c r="AJ37" s="42"/>
+      <c r="AK37" s="42"/>
+      <c r="AL37" s="42"/>
+      <c r="AM37" s="42"/>
+      <c r="AN37" s="42"/>
+      <c r="AO37" s="42"/>
+      <c r="AP37" s="42"/>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -5530,96 +5531,96 @@
       <c r="AP38" s="6"/>
     </row>
     <row r="39" spans="1:42" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="40"/>
-      <c r="Y39" s="40"/>
-      <c r="Z39" s="40"/>
-      <c r="AA39" s="40"/>
-      <c r="AB39" s="40"/>
-      <c r="AC39" s="40"/>
-      <c r="AD39" s="40"/>
-      <c r="AE39" s="40"/>
-      <c r="AF39" s="40"/>
-      <c r="AG39" s="40"/>
-      <c r="AH39" s="40"/>
-      <c r="AI39" s="40"/>
-      <c r="AJ39" s="40"/>
-      <c r="AK39" s="40"/>
-      <c r="AL39" s="40"/>
-      <c r="AM39" s="40"/>
-      <c r="AN39" s="40"/>
-      <c r="AO39" s="40"/>
-      <c r="AP39" s="40"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="55"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="55"/>
+      <c r="Y39" s="55"/>
+      <c r="Z39" s="55"/>
+      <c r="AA39" s="55"/>
+      <c r="AB39" s="55"/>
+      <c r="AC39" s="55"/>
+      <c r="AD39" s="55"/>
+      <c r="AE39" s="55"/>
+      <c r="AF39" s="55"/>
+      <c r="AG39" s="55"/>
+      <c r="AH39" s="55"/>
+      <c r="AI39" s="55"/>
+      <c r="AJ39" s="55"/>
+      <c r="AK39" s="55"/>
+      <c r="AL39" s="55"/>
+      <c r="AM39" s="55"/>
+      <c r="AN39" s="55"/>
+      <c r="AO39" s="55"/>
+      <c r="AP39" s="55"/>
     </row>
     <row r="40" spans="1:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="71"/>
-      <c r="S40" s="71"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="71"/>
-      <c r="V40" s="71"/>
-      <c r="W40" s="71"/>
-      <c r="X40" s="71"/>
-      <c r="Y40" s="71"/>
-      <c r="Z40" s="71"/>
-      <c r="AA40" s="71"/>
-      <c r="AB40" s="71"/>
-      <c r="AC40" s="71"/>
-      <c r="AD40" s="71"/>
-      <c r="AE40" s="71"/>
-      <c r="AF40" s="71"/>
-      <c r="AG40" s="71"/>
-      <c r="AH40" s="71"/>
-      <c r="AI40" s="71"/>
-      <c r="AJ40" s="71"/>
-      <c r="AK40" s="71"/>
-      <c r="AL40" s="71"/>
-      <c r="AM40" s="71"/>
-      <c r="AN40" s="71"/>
-      <c r="AO40" s="71"/>
-      <c r="AP40" s="71"/>
+      <c r="A40" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="86"/>
+      <c r="N40" s="86"/>
+      <c r="O40" s="86"/>
+      <c r="P40" s="86"/>
+      <c r="Q40" s="86"/>
+      <c r="R40" s="86"/>
+      <c r="S40" s="86"/>
+      <c r="T40" s="86"/>
+      <c r="U40" s="86"/>
+      <c r="V40" s="86"/>
+      <c r="W40" s="86"/>
+      <c r="X40" s="86"/>
+      <c r="Y40" s="86"/>
+      <c r="Z40" s="86"/>
+      <c r="AA40" s="86"/>
+      <c r="AB40" s="86"/>
+      <c r="AC40" s="86"/>
+      <c r="AD40" s="86"/>
+      <c r="AE40" s="86"/>
+      <c r="AF40" s="86"/>
+      <c r="AG40" s="86"/>
+      <c r="AH40" s="86"/>
+      <c r="AI40" s="86"/>
+      <c r="AJ40" s="86"/>
+      <c r="AK40" s="86"/>
+      <c r="AL40" s="86"/>
+      <c r="AM40" s="86"/>
+      <c r="AN40" s="86"/>
+      <c r="AO40" s="86"/>
+      <c r="AP40" s="86"/>
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
@@ -5745,54 +5746,54 @@
     </row>
     <row r="44" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="45"/>
-      <c r="S45" s="45"/>
-      <c r="T45" s="45"/>
-      <c r="U45" s="45"/>
-      <c r="V45" s="45"/>
-      <c r="W45" s="45"/>
-      <c r="X45" s="45"/>
-      <c r="Y45" s="45"/>
-      <c r="Z45" s="45"/>
-      <c r="AA45" s="45"/>
-      <c r="AB45" s="45"/>
-      <c r="AC45" s="45"/>
-      <c r="AD45" s="45"/>
-      <c r="AE45" s="45"/>
-      <c r="AF45" s="54" t="s">
+      <c r="A45" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60"/>
+      <c r="R45" s="60"/>
+      <c r="S45" s="60"/>
+      <c r="T45" s="60"/>
+      <c r="U45" s="60"/>
+      <c r="V45" s="60"/>
+      <c r="W45" s="60"/>
+      <c r="X45" s="60"/>
+      <c r="Y45" s="60"/>
+      <c r="Z45" s="60"/>
+      <c r="AA45" s="60"/>
+      <c r="AB45" s="60"/>
+      <c r="AC45" s="60"/>
+      <c r="AD45" s="60"/>
+      <c r="AE45" s="60"/>
+      <c r="AF45" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="AG45" s="54"/>
-      <c r="AH45" s="54"/>
-      <c r="AI45" s="54"/>
-      <c r="AJ45" s="54"/>
-      <c r="AK45" s="55"/>
+      <c r="AG45" s="47"/>
+      <c r="AH45" s="47"/>
+      <c r="AI45" s="47"/>
+      <c r="AJ45" s="47"/>
+      <c r="AK45" s="48"/>
       <c r="AL45" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AM45" s="56" t="s">
+      <c r="AM45" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="AN45" s="57"/>
+      <c r="AN45" s="50"/>
       <c r="AO45" s="9" t="s">
         <v>34</v>
       </c>
@@ -5830,14 +5831,14 @@
       <c r="B47" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
       <c r="O47" s="1"/>
       <c r="P47" s="4" t="s">
         <v>22</v>
@@ -5865,40 +5866,40 @@
     </row>
     <row r="48" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="45"/>
-      <c r="U49" s="45"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="45"/>
-      <c r="X49" s="45"/>
-      <c r="Y49" s="45"/>
-      <c r="Z49" s="45"/>
-      <c r="AA49" s="45"/>
-      <c r="AB49" s="45"/>
-      <c r="AC49" s="45"/>
-      <c r="AD49" s="45"/>
-      <c r="AE49" s="45"/>
-      <c r="AF49" s="45"/>
+      <c r="A49" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="60"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="60"/>
+      <c r="Q49" s="60"/>
+      <c r="R49" s="60"/>
+      <c r="S49" s="60"/>
+      <c r="T49" s="60"/>
+      <c r="U49" s="60"/>
+      <c r="V49" s="60"/>
+      <c r="W49" s="60"/>
+      <c r="X49" s="60"/>
+      <c r="Y49" s="60"/>
+      <c r="Z49" s="60"/>
+      <c r="AA49" s="60"/>
+      <c r="AB49" s="60"/>
+      <c r="AC49" s="60"/>
+      <c r="AD49" s="60"/>
+      <c r="AE49" s="60"/>
+      <c r="AF49" s="60"/>
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
       <c r="AI49" s="30"/>
@@ -5911,90 +5912,90 @@
       <c r="AP49" s="2"/>
     </row>
     <row r="50" spans="1:42" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="45"/>
-      <c r="V50" s="45"/>
-      <c r="W50" s="45"/>
-      <c r="X50" s="45"/>
-      <c r="Y50" s="45"/>
-      <c r="Z50" s="45"/>
-      <c r="AA50" s="45"/>
-      <c r="AB50" s="45"/>
-      <c r="AC50" s="45"/>
-      <c r="AD50" s="45"/>
-      <c r="AE50" s="45"/>
-      <c r="AF50" s="45"/>
-      <c r="AG50" s="40" t="s">
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="60"/>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="60"/>
+      <c r="R50" s="60"/>
+      <c r="S50" s="60"/>
+      <c r="T50" s="60"/>
+      <c r="U50" s="60"/>
+      <c r="V50" s="60"/>
+      <c r="W50" s="60"/>
+      <c r="X50" s="60"/>
+      <c r="Y50" s="60"/>
+      <c r="Z50" s="60"/>
+      <c r="AA50" s="60"/>
+      <c r="AB50" s="60"/>
+      <c r="AC50" s="60"/>
+      <c r="AD50" s="60"/>
+      <c r="AE50" s="60"/>
+      <c r="AF50" s="60"/>
+      <c r="AG50" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="AH50" s="40"/>
-      <c r="AJ50" s="40" t="s">
+      <c r="AH50" s="55"/>
+      <c r="AJ50" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AK50" s="40"/>
+      <c r="AK50" s="55"/>
       <c r="AL50" s="4"/>
-      <c r="AM50" s="40" t="s">
+      <c r="AM50" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="AN50" s="40"/>
-      <c r="AO50" s="40"/>
-      <c r="AP50" s="40"/>
+      <c r="AN50" s="55"/>
+      <c r="AO50" s="55"/>
+      <c r="AP50" s="55"/>
     </row>
     <row r="51" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="50"/>
-      <c r="R52" s="50"/>
-      <c r="S52" s="50"/>
-      <c r="T52" s="50"/>
-      <c r="U52" s="50"/>
-      <c r="V52" s="50"/>
-      <c r="W52" s="50"/>
-      <c r="X52" s="50"/>
-      <c r="Y52" s="50"/>
-      <c r="Z52" s="50"/>
-      <c r="AA52" s="50"/>
-      <c r="AB52" s="50"/>
-      <c r="AC52" s="50"/>
-      <c r="AD52" s="50"/>
-      <c r="AE52" s="50"/>
-      <c r="AF52" s="50"/>
+      <c r="A52" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="44"/>
+      <c r="Y52" s="44"/>
+      <c r="Z52" s="44"/>
+      <c r="AA52" s="44"/>
+      <c r="AB52" s="44"/>
+      <c r="AC52" s="44"/>
+      <c r="AD52" s="44"/>
+      <c r="AE52" s="44"/>
+      <c r="AF52" s="44"/>
     </row>
     <row r="53" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6197,189 +6198,189 @@
     </row>
     <row r="57" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:42" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="45"/>
-      <c r="S58" s="45"/>
-      <c r="T58" s="45"/>
-      <c r="U58" s="45"/>
-      <c r="V58" s="45"/>
-      <c r="W58" s="45"/>
-      <c r="X58" s="45"/>
-      <c r="Y58" s="45"/>
-      <c r="Z58" s="45"/>
-      <c r="AA58" s="45"/>
-      <c r="AB58" s="45"/>
-      <c r="AC58" s="45"/>
-      <c r="AD58" s="45"/>
-      <c r="AE58" s="45"/>
-      <c r="AF58" s="45"/>
-      <c r="AG58" s="45"/>
-      <c r="AH58" s="45"/>
-      <c r="AI58" s="45"/>
-      <c r="AJ58" s="45"/>
-      <c r="AK58" s="45"/>
-      <c r="AL58" s="45"/>
-      <c r="AM58" s="45"/>
-      <c r="AN58" s="45"/>
-      <c r="AO58" s="45"/>
-      <c r="AP58" s="45"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60"/>
+      <c r="N58" s="60"/>
+      <c r="O58" s="60"/>
+      <c r="P58" s="60"/>
+      <c r="Q58" s="60"/>
+      <c r="R58" s="60"/>
+      <c r="S58" s="60"/>
+      <c r="T58" s="60"/>
+      <c r="U58" s="60"/>
+      <c r="V58" s="60"/>
+      <c r="W58" s="60"/>
+      <c r="X58" s="60"/>
+      <c r="Y58" s="60"/>
+      <c r="Z58" s="60"/>
+      <c r="AA58" s="60"/>
+      <c r="AB58" s="60"/>
+      <c r="AC58" s="60"/>
+      <c r="AD58" s="60"/>
+      <c r="AE58" s="60"/>
+      <c r="AF58" s="60"/>
+      <c r="AG58" s="60"/>
+      <c r="AH58" s="60"/>
+      <c r="AI58" s="60"/>
+      <c r="AJ58" s="60"/>
+      <c r="AK58" s="60"/>
+      <c r="AL58" s="60"/>
+      <c r="AM58" s="60"/>
+      <c r="AN58" s="60"/>
+      <c r="AO58" s="60"/>
+      <c r="AP58" s="60"/>
     </row>
     <row r="59" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="50" t="s">
+      <c r="A60" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="50"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="50"/>
-      <c r="O60" s="50"/>
-      <c r="P60" s="50"/>
-      <c r="Q60" s="50"/>
-      <c r="R60" s="50"/>
-      <c r="S60" s="50"/>
-      <c r="T60" s="50"/>
-      <c r="U60" s="50"/>
-      <c r="V60" s="50"/>
-      <c r="W60" s="50"/>
-      <c r="X60" s="50"/>
-      <c r="Y60" s="50"/>
-      <c r="Z60" s="50"/>
-      <c r="AA60" s="50"/>
-      <c r="AB60" s="50"/>
-      <c r="AC60" s="50"/>
-      <c r="AD60" s="50"/>
-      <c r="AE60" s="50"/>
-      <c r="AF60" s="50"/>
-      <c r="AG60" s="50"/>
-      <c r="AH60" s="50"/>
-      <c r="AI60" s="50"/>
-      <c r="AJ60" s="50"/>
-      <c r="AK60" s="50"/>
-      <c r="AL60" s="50"/>
-      <c r="AM60" s="50"/>
-      <c r="AN60" s="50"/>
-      <c r="AO60" s="50"/>
-      <c r="AP60" s="50"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="44"/>
+      <c r="R60" s="44"/>
+      <c r="S60" s="44"/>
+      <c r="T60" s="44"/>
+      <c r="U60" s="44"/>
+      <c r="V60" s="44"/>
+      <c r="W60" s="44"/>
+      <c r="X60" s="44"/>
+      <c r="Y60" s="44"/>
+      <c r="Z60" s="44"/>
+      <c r="AA60" s="44"/>
+      <c r="AB60" s="44"/>
+      <c r="AC60" s="44"/>
+      <c r="AD60" s="44"/>
+      <c r="AE60" s="44"/>
+      <c r="AF60" s="44"/>
+      <c r="AG60" s="44"/>
+      <c r="AH60" s="44"/>
+      <c r="AI60" s="44"/>
+      <c r="AJ60" s="44"/>
+      <c r="AK60" s="44"/>
+      <c r="AL60" s="44"/>
+      <c r="AM60" s="44"/>
+      <c r="AN60" s="44"/>
+      <c r="AO60" s="44"/>
+      <c r="AP60" s="44"/>
     </row>
     <row r="61" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="B61" s="75"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="75"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="75"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="75"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="75"/>
-      <c r="M61" s="75"/>
-      <c r="N61" s="75"/>
-      <c r="O61" s="75"/>
-      <c r="P61" s="75"/>
-      <c r="Q61" s="75"/>
-      <c r="R61" s="75"/>
-      <c r="S61" s="75"/>
-      <c r="T61" s="75"/>
-      <c r="U61" s="75"/>
-      <c r="V61" s="75"/>
-      <c r="W61" s="75"/>
-      <c r="X61" s="75"/>
-      <c r="Y61" s="75"/>
-      <c r="Z61" s="75"/>
-      <c r="AA61" s="75"/>
-      <c r="AB61" s="75"/>
-      <c r="AC61" s="75"/>
-      <c r="AD61" s="75"/>
-      <c r="AE61" s="75"/>
-      <c r="AF61" s="75"/>
-      <c r="AG61" s="75"/>
-      <c r="AH61" s="75"/>
-      <c r="AI61" s="75"/>
-      <c r="AJ61" s="75"/>
-      <c r="AK61" s="75"/>
-      <c r="AL61" s="75"/>
-      <c r="AM61" s="75"/>
-      <c r="AN61" s="75"/>
-      <c r="AO61" s="75"/>
-      <c r="AP61" s="75"/>
+      <c r="A61" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
+      <c r="M61" s="66"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="66"/>
+      <c r="Q61" s="66"/>
+      <c r="R61" s="66"/>
+      <c r="S61" s="66"/>
+      <c r="T61" s="66"/>
+      <c r="U61" s="66"/>
+      <c r="V61" s="66"/>
+      <c r="W61" s="66"/>
+      <c r="X61" s="66"/>
+      <c r="Y61" s="66"/>
+      <c r="Z61" s="66"/>
+      <c r="AA61" s="66"/>
+      <c r="AB61" s="66"/>
+      <c r="AC61" s="66"/>
+      <c r="AD61" s="66"/>
+      <c r="AE61" s="66"/>
+      <c r="AF61" s="66"/>
+      <c r="AG61" s="66"/>
+      <c r="AH61" s="66"/>
+      <c r="AI61" s="66"/>
+      <c r="AJ61" s="66"/>
+      <c r="AK61" s="66"/>
+      <c r="AL61" s="66"/>
+      <c r="AM61" s="66"/>
+      <c r="AN61" s="66"/>
+      <c r="AO61" s="66"/>
+      <c r="AP61" s="66"/>
     </row>
     <row r="62" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="77" t="s">
+      <c r="A62" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="77"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="77"/>
-      <c r="K62" s="77"/>
-      <c r="L62" s="77"/>
-      <c r="M62" s="77"/>
-      <c r="N62" s="77"/>
-      <c r="O62" s="77"/>
-      <c r="P62" s="77"/>
-      <c r="Q62" s="77"/>
-      <c r="R62" s="77"/>
-      <c r="S62" s="77"/>
-      <c r="T62" s="77"/>
-      <c r="U62" s="77"/>
-      <c r="V62" s="77"/>
-      <c r="W62" s="77"/>
-      <c r="X62" s="77"/>
-      <c r="Y62" s="77"/>
-      <c r="Z62" s="77"/>
-      <c r="AA62" s="77"/>
-      <c r="AB62" s="77"/>
-      <c r="AC62" s="77"/>
-      <c r="AD62" s="77"/>
-      <c r="AE62" s="77"/>
-      <c r="AF62" s="77"/>
-      <c r="AG62" s="77"/>
-      <c r="AH62" s="77"/>
-      <c r="AI62" s="77"/>
-      <c r="AJ62" s="77"/>
-      <c r="AK62" s="77"/>
-      <c r="AL62" s="77"/>
-      <c r="AM62" s="77"/>
-      <c r="AN62" s="77"/>
-      <c r="AO62" s="77"/>
-      <c r="AP62" s="77"/>
+      <c r="B62" s="81"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="81"/>
+      <c r="J62" s="81"/>
+      <c r="K62" s="81"/>
+      <c r="L62" s="81"/>
+      <c r="M62" s="81"/>
+      <c r="N62" s="81"/>
+      <c r="O62" s="81"/>
+      <c r="P62" s="81"/>
+      <c r="Q62" s="81"/>
+      <c r="R62" s="81"/>
+      <c r="S62" s="81"/>
+      <c r="T62" s="81"/>
+      <c r="U62" s="81"/>
+      <c r="V62" s="81"/>
+      <c r="W62" s="81"/>
+      <c r="X62" s="81"/>
+      <c r="Y62" s="81"/>
+      <c r="Z62" s="81"/>
+      <c r="AA62" s="81"/>
+      <c r="AB62" s="81"/>
+      <c r="AC62" s="81"/>
+      <c r="AD62" s="81"/>
+      <c r="AE62" s="81"/>
+      <c r="AF62" s="81"/>
+      <c r="AG62" s="81"/>
+      <c r="AH62" s="81"/>
+      <c r="AI62" s="81"/>
+      <c r="AJ62" s="81"/>
+      <c r="AK62" s="81"/>
+      <c r="AL62" s="81"/>
+      <c r="AM62" s="81"/>
+      <c r="AN62" s="81"/>
+      <c r="AO62" s="81"/>
+      <c r="AP62" s="81"/>
     </row>
     <row r="63" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="27"/>
@@ -6432,51 +6433,51 @@
       <c r="V64" s="27"/>
       <c r="W64" s="27"/>
       <c r="X64" s="27"/>
-      <c r="AH64" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI64" s="81"/>
-      <c r="AJ64" s="81"/>
-      <c r="AK64" s="81"/>
-      <c r="AL64" s="81"/>
-      <c r="AM64" s="81"/>
-      <c r="AN64" s="81"/>
-      <c r="AO64" s="82"/>
+      <c r="AH64" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI64" s="68"/>
+      <c r="AJ64" s="68"/>
+      <c r="AK64" s="68"/>
+      <c r="AL64" s="68"/>
+      <c r="AM64" s="68"/>
+      <c r="AN64" s="68"/>
+      <c r="AO64" s="69"/>
     </row>
     <row r="65" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="89"/>
       <c r="D65" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E65" s="89"/>
-      <c r="F65" s="89"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="89"/>
-      <c r="I65" s="89"/>
-      <c r="J65" s="89"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="76"/>
+      <c r="J65" s="76"/>
       <c r="K65" s="23">
         <v>2</v>
       </c>
       <c r="L65" s="23">
         <v>0</v>
       </c>
-      <c r="M65" s="64"/>
-      <c r="N65" s="64"/>
+      <c r="M65" s="89"/>
+      <c r="N65" s="89"/>
       <c r="O65" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AH65" s="83"/>
-      <c r="AI65" s="84"/>
-      <c r="AJ65" s="84"/>
-      <c r="AK65" s="84"/>
-      <c r="AL65" s="84"/>
-      <c r="AM65" s="84"/>
-      <c r="AN65" s="84"/>
-      <c r="AO65" s="85"/>
+      <c r="AH65" s="70"/>
+      <c r="AI65" s="71"/>
+      <c r="AJ65" s="71"/>
+      <c r="AK65" s="71"/>
+      <c r="AL65" s="71"/>
+      <c r="AM65" s="71"/>
+      <c r="AN65" s="71"/>
+      <c r="AO65" s="72"/>
     </row>
     <row r="66" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="21"/>
@@ -6494,62 +6495,62 @@
       <c r="O66" s="25"/>
       <c r="P66" s="25"/>
       <c r="Q66" s="24"/>
-      <c r="AH66" s="86"/>
-      <c r="AI66" s="87"/>
-      <c r="AJ66" s="87"/>
-      <c r="AK66" s="87"/>
-      <c r="AL66" s="87"/>
-      <c r="AM66" s="87"/>
-      <c r="AN66" s="87"/>
-      <c r="AO66" s="88"/>
+      <c r="AH66" s="73"/>
+      <c r="AI66" s="74"/>
+      <c r="AJ66" s="74"/>
+      <c r="AK66" s="74"/>
+      <c r="AL66" s="74"/>
+      <c r="AM66" s="74"/>
+      <c r="AN66" s="74"/>
+      <c r="AO66" s="75"/>
     </row>
     <row r="67" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AF67" s="17"/>
     </row>
     <row r="68" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="50" t="s">
+      <c r="A68" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="50"/>
-      <c r="L68" s="75">
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="66">
         <v>1</v>
       </c>
-      <c r="M68" s="75"/>
-      <c r="N68" s="75"/>
+      <c r="M68" s="66"/>
+      <c r="N68" s="66"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="76" t="s">
+      <c r="P68" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="Q68" s="76"/>
+      <c r="Q68" s="80"/>
       <c r="R68" s="18" t="s">
         <v>83</v>
       </c>
       <c r="S68" s="31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T68" s="31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U68" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="V68" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="W68" s="72"/>
-      <c r="X68" s="72"/>
-      <c r="Y68" s="72"/>
-      <c r="Z68" s="72"/>
-      <c r="AA68" s="72"/>
+      <c r="V68" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="W68" s="77"/>
+      <c r="X68" s="77"/>
+      <c r="Y68" s="77"/>
+      <c r="Z68" s="77"/>
+      <c r="AA68" s="77"/>
       <c r="AB68" s="20">
         <v>2</v>
       </c>
@@ -6557,10 +6558,10 @@
         <v>0</v>
       </c>
       <c r="AD68" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE68" s="31">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AF68" s="12" t="s">
         <v>84</v>
@@ -6568,121 +6569,121 @@
     </row>
     <row r="69" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" s="79"/>
-      <c r="C70" s="79"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="79"/>
-      <c r="K70" s="79"/>
-      <c r="L70" s="79"/>
-      <c r="M70" s="79"/>
-      <c r="N70" s="79"/>
-      <c r="O70" s="79"/>
-      <c r="P70" s="79"/>
-      <c r="Q70" s="79"/>
-      <c r="R70" s="79"/>
-      <c r="S70" s="79"/>
-      <c r="T70" s="79"/>
-      <c r="U70" s="79"/>
-      <c r="V70" s="79"/>
-      <c r="W70" s="79"/>
-      <c r="X70" s="79"/>
-      <c r="Y70" s="79"/>
-      <c r="Z70" s="79"/>
-      <c r="AA70" s="79"/>
-      <c r="AB70" s="79"/>
-      <c r="AC70" s="79"/>
-      <c r="AD70" s="79"/>
-      <c r="AE70" s="79"/>
-      <c r="AF70" s="79"/>
+      <c r="A70" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" s="65"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="65"/>
+      <c r="L70" s="65"/>
+      <c r="M70" s="65"/>
+      <c r="N70" s="65"/>
+      <c r="O70" s="65"/>
+      <c r="P70" s="65"/>
+      <c r="Q70" s="65"/>
+      <c r="R70" s="65"/>
+      <c r="S70" s="65"/>
+      <c r="T70" s="65"/>
+      <c r="U70" s="65"/>
+      <c r="V70" s="65"/>
+      <c r="W70" s="65"/>
+      <c r="X70" s="65"/>
+      <c r="Y70" s="65"/>
+      <c r="Z70" s="65"/>
+      <c r="AA70" s="65"/>
+      <c r="AB70" s="65"/>
+      <c r="AC70" s="65"/>
+      <c r="AD70" s="65"/>
+      <c r="AE70" s="65"/>
+      <c r="AF70" s="65"/>
     </row>
     <row r="71" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="50" t="s">
+      <c r="A72" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="50"/>
-      <c r="N72" s="50"/>
-      <c r="O72" s="50"/>
-      <c r="P72" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q72" s="75"/>
-      <c r="R72" s="75"/>
-      <c r="S72" s="75"/>
-      <c r="T72" s="75"/>
-      <c r="U72" s="75"/>
-      <c r="V72" s="75"/>
-      <c r="W72" s="75"/>
-      <c r="X72" s="75"/>
-      <c r="Y72" s="75"/>
-      <c r="Z72" s="75"/>
-      <c r="AA72" s="75"/>
-      <c r="AB72" s="75"/>
-      <c r="AC72" s="75"/>
-      <c r="AD72" s="75"/>
-      <c r="AE72" s="75"/>
-      <c r="AF72" s="75"/>
-      <c r="AG72" s="75"/>
-      <c r="AH72" s="75"/>
-      <c r="AI72" s="75"/>
-      <c r="AJ72" s="75"/>
-      <c r="AK72" s="75"/>
-      <c r="AL72" s="75"/>
-      <c r="AM72" s="75"/>
-      <c r="AN72" s="75"/>
-      <c r="AO72" s="75"/>
-      <c r="AP72" s="75"/>
+      <c r="Q72" s="66"/>
+      <c r="R72" s="66"/>
+      <c r="S72" s="66"/>
+      <c r="T72" s="66"/>
+      <c r="U72" s="66"/>
+      <c r="V72" s="66"/>
+      <c r="W72" s="66"/>
+      <c r="X72" s="66"/>
+      <c r="Y72" s="66"/>
+      <c r="Z72" s="66"/>
+      <c r="AA72" s="66"/>
+      <c r="AB72" s="66"/>
+      <c r="AC72" s="66"/>
+      <c r="AD72" s="66"/>
+      <c r="AE72" s="66"/>
+      <c r="AF72" s="66"/>
+      <c r="AG72" s="66"/>
+      <c r="AH72" s="66"/>
+      <c r="AI72" s="66"/>
+      <c r="AJ72" s="66"/>
+      <c r="AK72" s="66"/>
+      <c r="AL72" s="66"/>
+      <c r="AM72" s="66"/>
+      <c r="AN72" s="66"/>
+      <c r="AO72" s="66"/>
+      <c r="AP72" s="66"/>
     </row>
     <row r="73" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="50" t="s">
+      <c r="A74" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B74" s="50"/>
-      <c r="D74" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="E74" s="75"/>
-      <c r="F74" s="75"/>
-      <c r="G74" s="75"/>
-      <c r="H74" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="I74" s="54"/>
-      <c r="J74" s="75">
+      <c r="B74" s="44"/>
+      <c r="D74" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="I74" s="47"/>
+      <c r="J74" s="66">
         <v>787525</v>
       </c>
-      <c r="K74" s="75"/>
-      <c r="L74" s="75"/>
-      <c r="M74" s="75"/>
-      <c r="N74" s="75"/>
-      <c r="O74" s="75"/>
-      <c r="P74" s="75"/>
-      <c r="Q74" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="R74" s="54"/>
-      <c r="S74" s="54"/>
-      <c r="T74" s="54"/>
+      <c r="K74" s="66"/>
+      <c r="L74" s="66"/>
+      <c r="M74" s="66"/>
+      <c r="N74" s="66"/>
+      <c r="O74" s="66"/>
+      <c r="P74" s="66"/>
+      <c r="Q74" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="R74" s="47"/>
+      <c r="S74" s="47"/>
+      <c r="T74" s="47"/>
       <c r="U74" s="18" t="s">
         <v>83</v>
       </c>
@@ -6695,12 +6696,12 @@
       <c r="X74" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="Y74" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z74" s="72"/>
-      <c r="AA74" s="72"/>
-      <c r="AB74" s="72"/>
+      <c r="Y74" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z74" s="77"/>
+      <c r="AA74" s="77"/>
+      <c r="AB74" s="77"/>
       <c r="AC74" s="20">
         <v>2</v>
       </c>
@@ -6716,82 +6717,136 @@
       <c r="AG74" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AH74" s="60"/>
-      <c r="AI74" s="60"/>
-      <c r="AJ74" s="60"/>
-      <c r="AK74" s="60"/>
-      <c r="AL74" s="60"/>
-      <c r="AM74" s="60"/>
-      <c r="AN74" s="60"/>
-      <c r="AO74" s="60"/>
+      <c r="AH74" s="53"/>
+      <c r="AI74" s="53"/>
+      <c r="AJ74" s="53"/>
+      <c r="AK74" s="53"/>
+      <c r="AL74" s="53"/>
+      <c r="AM74" s="53"/>
+      <c r="AN74" s="53"/>
+      <c r="AO74" s="53"/>
     </row>
     <row r="75" spans="1:42" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AH75" s="60"/>
-      <c r="AI75" s="60"/>
-      <c r="AJ75" s="60"/>
-      <c r="AK75" s="60"/>
-      <c r="AL75" s="60"/>
-      <c r="AM75" s="60"/>
-      <c r="AN75" s="60"/>
-      <c r="AO75" s="60"/>
+      <c r="AH75" s="53"/>
+      <c r="AI75" s="53"/>
+      <c r="AJ75" s="53"/>
+      <c r="AK75" s="53"/>
+      <c r="AL75" s="53"/>
+      <c r="AM75" s="53"/>
+      <c r="AN75" s="53"/>
+      <c r="AO75" s="53"/>
     </row>
     <row r="76" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="F76" s="74"/>
-      <c r="G76" s="74"/>
-      <c r="H76" s="74"/>
-      <c r="I76" s="74"/>
-      <c r="J76" s="74"/>
-      <c r="K76" s="74"/>
-      <c r="L76" s="74"/>
-      <c r="M76" s="74"/>
-      <c r="N76" s="74"/>
-      <c r="O76" s="74"/>
-      <c r="P76" s="74"/>
-      <c r="Q76" s="74"/>
-      <c r="R76" s="74"/>
-      <c r="S76" s="74"/>
-      <c r="T76" s="74"/>
-      <c r="U76" s="74"/>
-      <c r="V76" s="74"/>
-      <c r="W76" s="74"/>
-      <c r="X76" s="74"/>
-      <c r="Y76" s="74"/>
-      <c r="Z76" s="74"/>
-      <c r="AA76" s="74"/>
-      <c r="AB76" s="74"/>
-      <c r="AC76" s="74"/>
-      <c r="AH76" s="73"/>
-      <c r="AI76" s="73"/>
-      <c r="AJ76" s="73"/>
-      <c r="AK76" s="73"/>
-      <c r="AL76" s="73"/>
-      <c r="AM76" s="73"/>
-      <c r="AN76" s="73"/>
-      <c r="AO76" s="73"/>
+      <c r="A76" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="F76" s="79"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="79"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="79"/>
+      <c r="L76" s="79"/>
+      <c r="M76" s="79"/>
+      <c r="N76" s="79"/>
+      <c r="O76" s="79"/>
+      <c r="P76" s="79"/>
+      <c r="Q76" s="79"/>
+      <c r="R76" s="79"/>
+      <c r="S76" s="79"/>
+      <c r="T76" s="79"/>
+      <c r="U76" s="79"/>
+      <c r="V76" s="79"/>
+      <c r="W76" s="79"/>
+      <c r="X76" s="79"/>
+      <c r="Y76" s="79"/>
+      <c r="Z76" s="79"/>
+      <c r="AA76" s="79"/>
+      <c r="AB76" s="79"/>
+      <c r="AC76" s="79"/>
+      <c r="AH76" s="78"/>
+      <c r="AI76" s="78"/>
+      <c r="AJ76" s="78"/>
+      <c r="AK76" s="78"/>
+      <c r="AL76" s="78"/>
+      <c r="AM76" s="78"/>
+      <c r="AN76" s="78"/>
+      <c r="AO76" s="78"/>
     </row>
     <row r="77" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AH77" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI77" s="78"/>
-      <c r="AJ77" s="78"/>
-      <c r="AK77" s="78"/>
-      <c r="AL77" s="78"/>
-      <c r="AM77" s="78"/>
-      <c r="AN77" s="78"/>
-      <c r="AO77" s="78"/>
+      <c r="AH77" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI77" s="64"/>
+      <c r="AJ77" s="64"/>
+      <c r="AK77" s="64"/>
+      <c r="AL77" s="64"/>
+      <c r="AM77" s="64"/>
+      <c r="AN77" s="64"/>
+      <c r="AO77" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="A9:Q10"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="A19:AP19"/>
+    <mergeCell ref="A16:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="A45:AE45"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AC32:AF32"/>
+    <mergeCell ref="A33:AP33"/>
+    <mergeCell ref="A37:AP37"/>
+    <mergeCell ref="A39:AP39"/>
+    <mergeCell ref="A40:AP40"/>
+    <mergeCell ref="AM8:AP8"/>
+    <mergeCell ref="A15:AP15"/>
+    <mergeCell ref="Y74:AB74"/>
+    <mergeCell ref="AH74:AO76"/>
+    <mergeCell ref="E76:AC76"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="Q74:T74"/>
+    <mergeCell ref="A68:K68"/>
+    <mergeCell ref="V68:AA68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="A58:AP58"/>
+    <mergeCell ref="A60:AP60"/>
+    <mergeCell ref="A61:AP61"/>
+    <mergeCell ref="A62:AP62"/>
     <mergeCell ref="AH77:AO77"/>
     <mergeCell ref="AF45:AK45"/>
     <mergeCell ref="AM45:AN45"/>
@@ -6808,60 +6863,6 @@
     <mergeCell ref="AH64:AO66"/>
     <mergeCell ref="E65:J65"/>
     <mergeCell ref="A52:AF52"/>
-    <mergeCell ref="AM8:AP8"/>
-    <mergeCell ref="A15:AP15"/>
-    <mergeCell ref="Y74:AB74"/>
-    <mergeCell ref="AH74:AO76"/>
-    <mergeCell ref="E76:AC76"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="Q74:T74"/>
-    <mergeCell ref="A68:K68"/>
-    <mergeCell ref="V68:AA68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="A58:AP58"/>
-    <mergeCell ref="A60:AP60"/>
-    <mergeCell ref="A61:AP61"/>
-    <mergeCell ref="A62:AP62"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="A45:AE45"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="AC32:AF32"/>
-    <mergeCell ref="A33:AP33"/>
-    <mergeCell ref="A37:AP37"/>
-    <mergeCell ref="A39:AP39"/>
-    <mergeCell ref="A40:AP40"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="A9:Q10"/>
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="A19:AP19"/>
-    <mergeCell ref="A16:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="AB17:AE17"/>
-    <mergeCell ref="A21:I21"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.35433070866141736" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
